--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="4530" windowWidth="1680" windowHeight="990" activeTab="3"/>
+    <workbookView xWindow="315" yWindow="4530" windowWidth="1680" windowHeight="990" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="results-final" sheetId="1" r:id="rId1"/>
-    <sheet name="results" sheetId="2" r:id="rId2"/>
-    <sheet name="report" sheetId="4" r:id="rId3"/>
+    <sheet name="Q1-preproc1" sheetId="2" r:id="rId1"/>
+    <sheet name="Q1-preproc2" sheetId="1" r:id="rId2"/>
+    <sheet name="Q1" sheetId="4" r:id="rId3"/>
     <sheet name="Q2" sheetId="5" r:id="rId4"/>
+    <sheet name="Q3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">report!$A$2:$O$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Q1'!$A$2:$O$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="53">
   <si>
     <t>[CURAND]</t>
   </si>
@@ -155,6 +156,30 @@
   </si>
   <si>
     <t>Precision</t>
+  </si>
+  <si>
+    <t>Hand picked the results from the command line</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Tiled</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>vt</t>
+  </si>
+  <si>
+    <t>Sequential (B transpose)</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>Flags</t>
   </si>
 </sst>
 </file>
@@ -734,7 +759,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -760,6 +785,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,16 +818,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -960,7 +991,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AF$2</c:f>
+              <c:f>'Q1'!$AF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -971,7 +1002,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1019,7 +1050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AF$3:$AF$8</c:f>
+              <c:f>'Q1'!$AF$3:$AF$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1051,7 +1082,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AG$2</c:f>
+              <c:f>'Q1'!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,7 +1093,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1110,7 +1141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AG$3:$AG$8</c:f>
+              <c:f>'Q1'!$AG$3:$AG$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1142,7 +1173,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AH$2</c:f>
+              <c:f>'Q1'!$AH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1153,7 +1184,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1201,7 +1232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AH$3:$AH$8</c:f>
+              <c:f>'Q1'!$AH$3:$AH$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1233,7 +1264,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AI$2</c:f>
+              <c:f>'Q1'!$AI$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1244,7 +1275,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1292,7 +1323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AI$3:$AI$8</c:f>
+              <c:f>'Q1'!$AI$3:$AI$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1324,7 +1355,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AJ$2</c:f>
+              <c:f>'Q1'!$AJ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1335,7 +1366,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1383,7 +1414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AJ$3:$AJ$8</c:f>
+              <c:f>'Q1'!$AJ$3:$AJ$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1415,7 +1446,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AK$2</c:f>
+              <c:f>'Q1'!$AK$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1426,7 +1457,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1474,7 +1505,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AK$3:$AK$8</c:f>
+              <c:f>'Q1'!$AK$3:$AK$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1506,7 +1537,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AL$2</c:f>
+              <c:f>'Q1'!$AL$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1517,7 +1548,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1565,7 +1596,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AL$3:$AL$8</c:f>
+              <c:f>'Q1'!$AL$3:$AL$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1597,7 +1628,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AM$2</c:f>
+              <c:f>'Q1'!$AM$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1608,7 +1639,7 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$3:$AE$8</c:f>
+              <c:f>'Q1'!$AD$3:$AE$8</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1656,7 +1687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AM$3:$AM$8</c:f>
+              <c:f>'Q1'!$AM$3:$AM$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1693,11 +1724,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105191296"/>
-        <c:axId val="105327232"/>
+        <c:axId val="146561664"/>
+        <c:axId val="146576128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105191296"/>
+        <c:axId val="146561664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105327232"/>
+        <c:crossAx val="146576128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1734,7 +1765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105327232"/>
+        <c:axId val="146576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105191296"/>
+        <c:crossAx val="146561664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,7 +1862,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AF$11</c:f>
+              <c:f>'Q1'!$AF$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1843,7 +1874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1891,7 +1922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AF$12:$AF$17</c:f>
+              <c:f>'Q1'!$AF$12:$AF$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1922,7 +1953,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AG$11</c:f>
+              <c:f>'Q1'!$AG$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1934,7 +1965,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1982,7 +2013,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AG$12:$AG$17</c:f>
+              <c:f>'Q1'!$AG$12:$AG$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2013,7 +2044,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AH$11</c:f>
+              <c:f>'Q1'!$AH$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2025,7 +2056,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -2073,7 +2104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AH$12:$AH$17</c:f>
+              <c:f>'Q1'!$AH$12:$AH$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2104,7 +2135,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AI$11</c:f>
+              <c:f>'Q1'!$AI$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2116,7 +2147,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -2164,7 +2195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AI$12:$AI$17</c:f>
+              <c:f>'Q1'!$AI$12:$AI$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2195,7 +2226,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AJ$11</c:f>
+              <c:f>'Q1'!$AJ$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2207,7 +2238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -2255,7 +2286,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AJ$12:$AJ$17</c:f>
+              <c:f>'Q1'!$AJ$12:$AJ$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2286,7 +2317,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AK$11</c:f>
+              <c:f>'Q1'!$AK$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2298,7 +2329,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -2346,7 +2377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AK$12:$AK$17</c:f>
+              <c:f>'Q1'!$AK$12:$AK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2377,7 +2408,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AL$11</c:f>
+              <c:f>'Q1'!$AL$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2389,7 +2420,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -2437,7 +2468,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AL$12:$AL$17</c:f>
+              <c:f>'Q1'!$AL$12:$AL$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2468,7 +2499,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>report!$AM$11</c:f>
+              <c:f>'Q1'!$AM$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2480,7 +2511,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>report!$AD$12:$AE$17</c:f>
+              <c:f>'Q1'!$AD$12:$AE$17</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -2528,7 +2559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>report!$AM$12:$AM$17</c:f>
+              <c:f>'Q1'!$AM$12:$AM$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2563,11 +2594,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162500608"/>
-        <c:axId val="162502528"/>
+        <c:axId val="146496128"/>
+        <c:axId val="146506496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162500608"/>
+        <c:axId val="146496128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162502528"/>
+        <c:crossAx val="146506496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2609,7 +2640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162502528"/>
+        <c:axId val="146506496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2644,7 +2675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162500608"/>
+        <c:crossAx val="146496128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2680,6 +2711,33 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vector Multiplication</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3241,11 +3299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165741312"/>
-        <c:axId val="165742848"/>
+        <c:axId val="146936576"/>
+        <c:axId val="146938496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165741312"/>
+        <c:axId val="146936576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165742848"/>
+        <c:crossAx val="146938496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3284,7 +3342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165742848"/>
+        <c:axId val="146938496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +3372,727 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165741312"/>
+        <c:crossAx val="146936576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance of Matrix Multiplication</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential (B transpose)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q3'!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>360000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1440000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3240000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>211.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1694.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1974.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5483.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6552.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q3'!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>360000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1440000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3240000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>364.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>364.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13051.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13657.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43998.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46981.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q3'!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>360000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1440000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3240000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>196.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6737.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7333.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22912.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25446.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q3'!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>360000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1440000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3240000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>105.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3354.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4159.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11449.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15231.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q3'!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>360000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1440000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3240000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>209.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3264.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3353.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11141.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11830.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q3'!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>360000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1440000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3240000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>229.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1702.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5822.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5886.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q3'!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>360000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1440000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3240000</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>110.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>353.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>367.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1018.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1042.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="138237056"/>
+        <c:axId val="138238592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="138237056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test case based on precision and no. of elements in the square matrix</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138238592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138238592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time taken to calculate by each technique (in mili seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138237056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3406,19 +4184,54 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>554005</xdr:colOff>
+      <xdr:colOff>554004</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>165229</xdr:rowOff>
+      <xdr:rowOff>165228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>59872</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>153176</xdr:rowOff>
+      <xdr:colOff>437372</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>388775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349898</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>58316</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>77756</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3723,1594 +4536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O40" sqref="A20:O40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>256</v>
-      </c>
-      <c r="D2">
-        <v>256</v>
-      </c>
-      <c r="E2">
-        <v>256</v>
-      </c>
-      <c r="F2">
-        <v>0.6</v>
-      </c>
-      <c r="G2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H2">
-        <v>7.27</v>
-      </c>
-      <c r="I2">
-        <v>3.1418979999999999</v>
-      </c>
-      <c r="J2">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="K2">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L2">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-      <c r="M2">
-        <v>3.1418309999999998</v>
-      </c>
-      <c r="N2">
-        <v>2.3800000000000001E-4</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>1024</v>
-      </c>
-      <c r="D3">
-        <v>256</v>
-      </c>
-      <c r="E3">
-        <v>256</v>
-      </c>
-      <c r="F3">
-        <v>0.19</v>
-      </c>
-      <c r="G3">
-        <v>2.41</v>
-      </c>
-      <c r="H3">
-        <v>23.959999</v>
-      </c>
-      <c r="I3">
-        <v>3.1413899999999999</v>
-      </c>
-      <c r="J3">
-        <v>-2.02E-4</v>
-      </c>
-      <c r="K3">
-        <v>3.1414010000000001</v>
-      </c>
-      <c r="L3">
-        <v>-1.92E-4</v>
-      </c>
-      <c r="M3">
-        <v>3.1417250000000001</v>
-      </c>
-      <c r="N3">
-        <v>1.3200000000000001E-4</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>4096</v>
-      </c>
-      <c r="D4">
-        <v>256</v>
-      </c>
-      <c r="E4">
-        <v>256</v>
-      </c>
-      <c r="F4">
-        <v>0.53</v>
-      </c>
-      <c r="G4">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="H4">
-        <v>76.550003000000004</v>
-      </c>
-      <c r="I4">
-        <v>3.1415820000000001</v>
-      </c>
-      <c r="J4">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="K4">
-        <v>3.141581</v>
-      </c>
-      <c r="L4">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="M4">
-        <v>3.1415280000000001</v>
-      </c>
-      <c r="N4">
-        <v>-6.4999999999999994E-5</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>256</v>
-      </c>
-      <c r="D5">
-        <v>256</v>
-      </c>
-      <c r="E5">
-        <v>256</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
-      </c>
-      <c r="G5">
-        <v>0.61</v>
-      </c>
-      <c r="H5">
-        <v>20.74</v>
-      </c>
-      <c r="I5">
-        <v>3.1418979999999999</v>
-      </c>
-      <c r="J5">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="K5">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L5">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-      <c r="M5">
-        <v>3.1416569999999999</v>
-      </c>
-      <c r="N5">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1024</v>
-      </c>
-      <c r="D6">
-        <v>256</v>
-      </c>
-      <c r="E6">
-        <v>256</v>
-      </c>
-      <c r="F6">
-        <v>0.19</v>
-      </c>
-      <c r="G6">
-        <v>2.38</v>
-      </c>
-      <c r="H6">
-        <v>86.260002</v>
-      </c>
-      <c r="I6">
-        <v>3.1413899999999999</v>
-      </c>
-      <c r="J6">
-        <v>-2.02E-4</v>
-      </c>
-      <c r="K6">
-        <v>3.1414010000000001</v>
-      </c>
-      <c r="L6">
-        <v>-1.92E-4</v>
-      </c>
-      <c r="M6">
-        <v>3.1418170000000001</v>
-      </c>
-      <c r="N6">
-        <v>2.24E-4</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>4096</v>
-      </c>
-      <c r="D7">
-        <v>256</v>
-      </c>
-      <c r="E7">
-        <v>256</v>
-      </c>
-      <c r="F7">
-        <v>0.53</v>
-      </c>
-      <c r="G7">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="H7">
-        <v>343.23998999999998</v>
-      </c>
-      <c r="I7">
-        <v>3.1415820000000001</v>
-      </c>
-      <c r="J7">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="K7">
-        <v>3.141581</v>
-      </c>
-      <c r="L7">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="M7">
-        <v>3.1415850000000001</v>
-      </c>
-      <c r="N7">
-        <v>-6.9999999999999999E-6</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>256</v>
-      </c>
-      <c r="D8">
-        <v>256</v>
-      </c>
-      <c r="E8">
-        <v>256</v>
-      </c>
-      <c r="F8">
-        <v>0.09</v>
-      </c>
-      <c r="G8">
-        <v>0.62</v>
-      </c>
-      <c r="H8">
-        <v>37.590000000000003</v>
-      </c>
-      <c r="I8">
-        <v>3.1418979999999999</v>
-      </c>
-      <c r="J8">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="K8">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L8">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-      <c r="M8">
-        <v>3.1420759999999999</v>
-      </c>
-      <c r="N8">
-        <v>4.84E-4</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1024</v>
-      </c>
-      <c r="D9">
-        <v>256</v>
-      </c>
-      <c r="E9">
-        <v>256</v>
-      </c>
-      <c r="F9">
-        <v>0.18</v>
-      </c>
-      <c r="G9">
-        <v>2.39</v>
-      </c>
-      <c r="H9">
-        <v>138.33999600000001</v>
-      </c>
-      <c r="I9">
-        <v>3.1413899999999999</v>
-      </c>
-      <c r="J9">
-        <v>-2.02E-4</v>
-      </c>
-      <c r="K9">
-        <v>3.1414010000000001</v>
-      </c>
-      <c r="L9">
-        <v>-1.92E-4</v>
-      </c>
-      <c r="M9">
-        <v>3.1416360000000001</v>
-      </c>
-      <c r="N9">
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>4096</v>
-      </c>
-      <c r="D10">
-        <v>256</v>
-      </c>
-      <c r="E10">
-        <v>256</v>
-      </c>
-      <c r="F10">
-        <v>0.53</v>
-      </c>
-      <c r="G10">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="H10">
-        <v>523.61999500000002</v>
-      </c>
-      <c r="I10">
-        <v>3.1415820000000001</v>
-      </c>
-      <c r="J10">
-        <v>-1.1E-5</v>
-      </c>
-      <c r="K10">
-        <v>3.141581</v>
-      </c>
-      <c r="L10">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="M10">
-        <v>3.1414689999999998</v>
-      </c>
-      <c r="N10">
-        <v>-1.2400000000000001E-4</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>256</v>
-      </c>
-      <c r="D11">
-        <v>256</v>
-      </c>
-      <c r="E11">
-        <v>256</v>
-      </c>
-      <c r="F11">
-        <v>0.62</v>
-      </c>
-      <c r="G11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H11">
-        <v>5.39</v>
-      </c>
-      <c r="I11">
-        <v>3.1418979999999999</v>
-      </c>
-      <c r="J11">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="K11">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L11">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-      <c r="M11">
-        <v>3.1416629999999999</v>
-      </c>
-      <c r="N11">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>1024</v>
-      </c>
-      <c r="D12">
-        <v>256</v>
-      </c>
-      <c r="E12">
-        <v>256</v>
-      </c>
-      <c r="F12">
-        <v>0.18</v>
-      </c>
-      <c r="G12">
-        <v>2.29</v>
-      </c>
-      <c r="H12">
-        <v>22.07</v>
-      </c>
-      <c r="I12">
-        <v>3.141394</v>
-      </c>
-      <c r="J12">
-        <v>-1.9900000000000001E-4</v>
-      </c>
-      <c r="K12">
-        <v>3.1414</v>
-      </c>
-      <c r="L12">
-        <v>-1.92E-4</v>
-      </c>
-      <c r="M12">
-        <v>3.1419280000000001</v>
-      </c>
-      <c r="N12">
-        <v>3.3599999999999998E-4</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>4096</v>
-      </c>
-      <c r="D13">
-        <v>256</v>
-      </c>
-      <c r="E13">
-        <v>256</v>
-      </c>
-      <c r="F13">
-        <v>0.54</v>
-      </c>
-      <c r="G13">
-        <v>9.18</v>
-      </c>
-      <c r="H13">
-        <v>88.220000999999996</v>
-      </c>
-      <c r="I13">
-        <v>3.1415760000000001</v>
-      </c>
-      <c r="J13">
-        <v>-1.7E-5</v>
-      </c>
-      <c r="K13">
-        <v>3.141581</v>
-      </c>
-      <c r="L13">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="M13">
-        <v>3.1415320000000002</v>
-      </c>
-      <c r="N13">
-        <v>-6.0999999999999999E-5</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>256</v>
-      </c>
-      <c r="D14">
-        <v>256</v>
-      </c>
-      <c r="E14">
-        <v>256</v>
-      </c>
-      <c r="F14">
-        <v>0.11</v>
-      </c>
-      <c r="G14">
-        <v>0.59</v>
-      </c>
-      <c r="H14">
-        <v>21.219999000000001</v>
-      </c>
-      <c r="I14">
-        <v>3.1418979999999999</v>
-      </c>
-      <c r="J14">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="K14">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L14">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-      <c r="M14">
-        <v>3.1419800000000002</v>
-      </c>
-      <c r="N14">
-        <v>3.8699999999999997E-4</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>1024</v>
-      </c>
-      <c r="D15">
-        <v>256</v>
-      </c>
-      <c r="E15">
-        <v>256</v>
-      </c>
-      <c r="F15">
-        <v>0.18</v>
-      </c>
-      <c r="G15">
-        <v>2.35</v>
-      </c>
-      <c r="H15">
-        <v>75.540001000000004</v>
-      </c>
-      <c r="I15">
-        <v>3.141394</v>
-      </c>
-      <c r="J15">
-        <v>-1.9900000000000001E-4</v>
-      </c>
-      <c r="K15">
-        <v>3.1414</v>
-      </c>
-      <c r="L15">
-        <v>-1.92E-4</v>
-      </c>
-      <c r="M15">
-        <v>3.1416729999999999</v>
-      </c>
-      <c r="N15">
-        <v>8.1000000000000004E-5</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>4096</v>
-      </c>
-      <c r="D16">
-        <v>256</v>
-      </c>
-      <c r="E16">
-        <v>256</v>
-      </c>
-      <c r="F16">
-        <v>0.54</v>
-      </c>
-      <c r="G16">
-        <v>9.14</v>
-      </c>
-      <c r="H16">
-        <v>347.94000199999999</v>
-      </c>
-      <c r="I16">
-        <v>3.1415760000000001</v>
-      </c>
-      <c r="J16">
-        <v>-1.7E-5</v>
-      </c>
-      <c r="K16">
-        <v>3.141581</v>
-      </c>
-      <c r="L16">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="M16">
-        <v>3.1414659999999999</v>
-      </c>
-      <c r="N16">
-        <v>-1.26E-4</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>256</v>
-      </c>
-      <c r="D17">
-        <v>256</v>
-      </c>
-      <c r="E17">
-        <v>256</v>
-      </c>
-      <c r="F17">
-        <v>0.09</v>
-      </c>
-      <c r="G17">
-        <v>0.6</v>
-      </c>
-      <c r="H17">
-        <v>34.380001</v>
-      </c>
-      <c r="I17">
-        <v>3.1418979999999999</v>
-      </c>
-      <c r="J17">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="K17">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L17">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-      <c r="M17">
-        <v>3.1418870000000001</v>
-      </c>
-      <c r="N17">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="O17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>1024</v>
-      </c>
-      <c r="D18">
-        <v>256</v>
-      </c>
-      <c r="E18">
-        <v>256</v>
-      </c>
-      <c r="F18">
-        <v>0.18</v>
-      </c>
-      <c r="G18">
-        <v>2.33</v>
-      </c>
-      <c r="H18">
-        <v>155.11000100000001</v>
-      </c>
-      <c r="I18">
-        <v>3.141394</v>
-      </c>
-      <c r="J18">
-        <v>-1.9900000000000001E-4</v>
-      </c>
-      <c r="K18">
-        <v>3.1414</v>
-      </c>
-      <c r="L18">
-        <v>-1.92E-4</v>
-      </c>
-      <c r="M18">
-        <v>3.1419600000000001</v>
-      </c>
-      <c r="N18">
-        <v>3.6699999999999998E-4</v>
-      </c>
-      <c r="O18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>4096</v>
-      </c>
-      <c r="D19">
-        <v>256</v>
-      </c>
-      <c r="E19">
-        <v>256</v>
-      </c>
-      <c r="F19">
-        <v>0.53</v>
-      </c>
-      <c r="G19">
-        <v>9.16</v>
-      </c>
-      <c r="H19">
-        <v>601.72997999999995</v>
-      </c>
-      <c r="I19">
-        <v>3.1415760000000001</v>
-      </c>
-      <c r="J19">
-        <v>-1.7E-5</v>
-      </c>
-      <c r="K19">
-        <v>3.141581</v>
-      </c>
-      <c r="L19">
-        <v>-1.2E-5</v>
-      </c>
-      <c r="M19">
-        <v>3.1415160000000002</v>
-      </c>
-      <c r="N19">
-        <v>-7.7000000000000001E-5</v>
-      </c>
-      <c r="O19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>256</v>
-      </c>
-      <c r="D21">
-        <v>256</v>
-      </c>
-      <c r="E21">
-        <v>256</v>
-      </c>
-      <c r="F21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I21">
-        <v>3.1414110000000002</v>
-      </c>
-      <c r="J21">
-        <v>-1.8200000000000001E-4</v>
-      </c>
-      <c r="K21">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L21">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>1024</v>
-      </c>
-      <c r="D22">
-        <v>256</v>
-      </c>
-      <c r="E22">
-        <v>256</v>
-      </c>
-      <c r="F22">
-        <v>0.06</v>
-      </c>
-      <c r="G22">
-        <v>2.27</v>
-      </c>
-      <c r="I22">
-        <v>3.14154</v>
-      </c>
-      <c r="J22">
-        <v>-5.3000000000000001E-5</v>
-      </c>
-      <c r="K22">
-        <v>3.1414010000000001</v>
-      </c>
-      <c r="L22">
-        <v>-1.92E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>4096</v>
-      </c>
-      <c r="D23">
-        <v>256</v>
-      </c>
-      <c r="E23">
-        <v>256</v>
-      </c>
-      <c r="F23">
-        <v>0.08</v>
-      </c>
-      <c r="G23">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <v>3.141483</v>
-      </c>
-      <c r="J23">
-        <v>-1.1E-4</v>
-      </c>
-      <c r="K23">
-        <v>3.141581</v>
-      </c>
-      <c r="L23">
-        <v>-1.2E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>256</v>
-      </c>
-      <c r="D24">
-        <v>256</v>
-      </c>
-      <c r="E24">
-        <v>256</v>
-      </c>
-      <c r="F24">
-        <v>0.09</v>
-      </c>
-      <c r="G24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I24">
-        <v>3.141562</v>
-      </c>
-      <c r="J24">
-        <v>-3.1000000000000001E-5</v>
-      </c>
-      <c r="K24">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L24">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>1024</v>
-      </c>
-      <c r="D25">
-        <v>256</v>
-      </c>
-      <c r="E25">
-        <v>256</v>
-      </c>
-      <c r="F25">
-        <v>0.05</v>
-      </c>
-      <c r="G25">
-        <v>2.33</v>
-      </c>
-      <c r="I25">
-        <v>3.141562</v>
-      </c>
-      <c r="J25">
-        <v>-3.1000000000000001E-5</v>
-      </c>
-      <c r="K25">
-        <v>3.1414</v>
-      </c>
-      <c r="L25">
-        <v>-1.92E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>4096</v>
-      </c>
-      <c r="D26">
-        <v>256</v>
-      </c>
-      <c r="E26">
-        <v>256</v>
-      </c>
-      <c r="F26">
-        <v>0.09</v>
-      </c>
-      <c r="G26">
-        <v>9.18</v>
-      </c>
-      <c r="I26">
-        <v>3.141562</v>
-      </c>
-      <c r="J26">
-        <v>-3.1000000000000001E-5</v>
-      </c>
-      <c r="K26">
-        <v>3.141581</v>
-      </c>
-      <c r="L26">
-        <v>-1.2E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>256</v>
-      </c>
-      <c r="D28">
-        <v>256</v>
-      </c>
-      <c r="E28">
-        <v>256</v>
-      </c>
-      <c r="F28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G28">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I28">
-        <v>3.1442489999999998</v>
-      </c>
-      <c r="J28">
-        <v>2.6570000000000001E-3</v>
-      </c>
-      <c r="K28">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L28">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>1024</v>
-      </c>
-      <c r="D29">
-        <v>256</v>
-      </c>
-      <c r="E29">
-        <v>256</v>
-      </c>
-      <c r="F29">
-        <v>0.06</v>
-      </c>
-      <c r="G29">
-        <v>2.29</v>
-      </c>
-      <c r="I29">
-        <v>3.1395170000000001</v>
-      </c>
-      <c r="J29">
-        <v>-2.0760000000000002E-3</v>
-      </c>
-      <c r="K29">
-        <v>3.1414010000000001</v>
-      </c>
-      <c r="L29">
-        <v>-1.92E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>4096</v>
-      </c>
-      <c r="D30">
-        <v>256</v>
-      </c>
-      <c r="E30">
-        <v>256</v>
-      </c>
-      <c r="F30">
-        <v>0.12</v>
-      </c>
-      <c r="G30">
-        <v>9.02</v>
-      </c>
-      <c r="I30">
-        <v>3.1415069999999998</v>
-      </c>
-      <c r="J30">
-        <v>-8.5000000000000006E-5</v>
-      </c>
-      <c r="K30">
-        <v>3.141581</v>
-      </c>
-      <c r="L30">
-        <v>-1.2E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>256</v>
-      </c>
-      <c r="D31">
-        <v>256</v>
-      </c>
-      <c r="E31">
-        <v>256</v>
-      </c>
-      <c r="F31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G31">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I31">
-        <v>3.1442489999999998</v>
-      </c>
-      <c r="J31">
-        <v>2.6570000000000001E-3</v>
-      </c>
-      <c r="K31">
-        <v>3.1414409999999999</v>
-      </c>
-      <c r="L31">
-        <v>-1.5100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32">
-        <v>1024</v>
-      </c>
-      <c r="D32">
-        <v>256</v>
-      </c>
-      <c r="E32">
-        <v>256</v>
-      </c>
-      <c r="F32">
-        <v>0.06</v>
-      </c>
-      <c r="G32">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I32">
-        <v>3.139507</v>
-      </c>
-      <c r="J32">
-        <v>-2.085E-3</v>
-      </c>
-      <c r="K32">
-        <v>3.1414</v>
-      </c>
-      <c r="L32">
-        <v>-1.92E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>4096</v>
-      </c>
-      <c r="D33">
-        <v>256</v>
-      </c>
-      <c r="E33">
-        <v>256</v>
-      </c>
-      <c r="F33">
-        <v>0.12</v>
-      </c>
-      <c r="G33">
-        <v>9.18</v>
-      </c>
-      <c r="I33">
-        <v>3.1414979999999999</v>
-      </c>
-      <c r="J33">
-        <v>-9.5000000000000005E-5</v>
-      </c>
-      <c r="K33">
-        <v>3.141581</v>
-      </c>
-      <c r="L33">
-        <v>-1.2E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>256</v>
-      </c>
-      <c r="D35">
-        <v>256</v>
-      </c>
-      <c r="E35">
-        <v>256</v>
-      </c>
-      <c r="F35">
-        <v>0.13</v>
-      </c>
-      <c r="I35">
-        <v>3.1414840000000002</v>
-      </c>
-      <c r="J35">
-        <v>-1.091082E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>1024</v>
-      </c>
-      <c r="D36">
-        <v>256</v>
-      </c>
-      <c r="E36">
-        <v>256</v>
-      </c>
-      <c r="F36">
-        <v>0.05</v>
-      </c>
-      <c r="I36">
-        <v>3.1416580000000001</v>
-      </c>
-      <c r="J36" s="1">
-        <v>6.5414209999999995E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>4096</v>
-      </c>
-      <c r="D37">
-        <v>256</v>
-      </c>
-      <c r="E37">
-        <v>256</v>
-      </c>
-      <c r="F37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I37">
-        <v>3.1415790000000001</v>
-      </c>
-      <c r="J37" s="1">
-        <v>-1.397918E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <v>256</v>
-      </c>
-      <c r="D38">
-        <v>256</v>
-      </c>
-      <c r="E38">
-        <v>256</v>
-      </c>
-      <c r="F38">
-        <v>0.16</v>
-      </c>
-      <c r="I38">
-        <v>3.1414840000000002</v>
-      </c>
-      <c r="J38">
-        <v>-1.091082E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39">
-        <v>1024</v>
-      </c>
-      <c r="D39">
-        <v>256</v>
-      </c>
-      <c r="E39">
-        <v>256</v>
-      </c>
-      <c r="F39">
-        <v>0.05</v>
-      </c>
-      <c r="I39">
-        <v>3.1416580000000001</v>
-      </c>
-      <c r="J39" s="1">
-        <v>6.5652620000000004E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40">
-        <v>4096</v>
-      </c>
-      <c r="D40">
-        <v>256</v>
-      </c>
-      <c r="E40">
-        <v>256</v>
-      </c>
-      <c r="F40">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I40">
-        <v>3.1415790000000001</v>
-      </c>
-      <c r="J40" s="1">
-        <v>-1.374077E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6655,11 +5884,1595 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2">
+        <v>256</v>
+      </c>
+      <c r="E2">
+        <v>256</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H2">
+        <v>7.27</v>
+      </c>
+      <c r="I2">
+        <v>3.1418979999999999</v>
+      </c>
+      <c r="J2">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="K2">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L2">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+      <c r="M2">
+        <v>3.1418309999999998</v>
+      </c>
+      <c r="N2">
+        <v>2.3800000000000001E-4</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1024</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3">
+        <v>256</v>
+      </c>
+      <c r="F3">
+        <v>0.19</v>
+      </c>
+      <c r="G3">
+        <v>2.41</v>
+      </c>
+      <c r="H3">
+        <v>23.959999</v>
+      </c>
+      <c r="I3">
+        <v>3.1413899999999999</v>
+      </c>
+      <c r="J3">
+        <v>-2.02E-4</v>
+      </c>
+      <c r="K3">
+        <v>3.1414010000000001</v>
+      </c>
+      <c r="L3">
+        <v>-1.92E-4</v>
+      </c>
+      <c r="M3">
+        <v>3.1417250000000001</v>
+      </c>
+      <c r="N3">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>4096</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>256</v>
+      </c>
+      <c r="F4">
+        <v>0.53</v>
+      </c>
+      <c r="G4">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H4">
+        <v>76.550003000000004</v>
+      </c>
+      <c r="I4">
+        <v>3.1415820000000001</v>
+      </c>
+      <c r="J4">
+        <v>-1.1E-5</v>
+      </c>
+      <c r="K4">
+        <v>3.141581</v>
+      </c>
+      <c r="L4">
+        <v>-1.2E-5</v>
+      </c>
+      <c r="M4">
+        <v>3.1415280000000001</v>
+      </c>
+      <c r="N4">
+        <v>-6.4999999999999994E-5</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>256</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.61</v>
+      </c>
+      <c r="H5">
+        <v>20.74</v>
+      </c>
+      <c r="I5">
+        <v>3.1418979999999999</v>
+      </c>
+      <c r="J5">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="K5">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L5">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+      <c r="M5">
+        <v>3.1416569999999999</v>
+      </c>
+      <c r="N5">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1024</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6">
+        <v>256</v>
+      </c>
+      <c r="F6">
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <v>2.38</v>
+      </c>
+      <c r="H6">
+        <v>86.260002</v>
+      </c>
+      <c r="I6">
+        <v>3.1413899999999999</v>
+      </c>
+      <c r="J6">
+        <v>-2.02E-4</v>
+      </c>
+      <c r="K6">
+        <v>3.1414010000000001</v>
+      </c>
+      <c r="L6">
+        <v>-1.92E-4</v>
+      </c>
+      <c r="M6">
+        <v>3.1418170000000001</v>
+      </c>
+      <c r="N6">
+        <v>2.24E-4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>4096</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>256</v>
+      </c>
+      <c r="F7">
+        <v>0.53</v>
+      </c>
+      <c r="G7">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H7">
+        <v>343.23998999999998</v>
+      </c>
+      <c r="I7">
+        <v>3.1415820000000001</v>
+      </c>
+      <c r="J7">
+        <v>-1.1E-5</v>
+      </c>
+      <c r="K7">
+        <v>3.141581</v>
+      </c>
+      <c r="L7">
+        <v>-1.2E-5</v>
+      </c>
+      <c r="M7">
+        <v>3.1415850000000001</v>
+      </c>
+      <c r="N7">
+        <v>-6.9999999999999999E-6</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
+      <c r="F8">
+        <v>0.09</v>
+      </c>
+      <c r="G8">
+        <v>0.62</v>
+      </c>
+      <c r="H8">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="I8">
+        <v>3.1418979999999999</v>
+      </c>
+      <c r="J8">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="K8">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L8">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+      <c r="M8">
+        <v>3.1420759999999999</v>
+      </c>
+      <c r="N8">
+        <v>4.84E-4</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1024</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>256</v>
+      </c>
+      <c r="F9">
+        <v>0.18</v>
+      </c>
+      <c r="G9">
+        <v>2.39</v>
+      </c>
+      <c r="H9">
+        <v>138.33999600000001</v>
+      </c>
+      <c r="I9">
+        <v>3.1413899999999999</v>
+      </c>
+      <c r="J9">
+        <v>-2.02E-4</v>
+      </c>
+      <c r="K9">
+        <v>3.1414010000000001</v>
+      </c>
+      <c r="L9">
+        <v>-1.92E-4</v>
+      </c>
+      <c r="M9">
+        <v>3.1416360000000001</v>
+      </c>
+      <c r="N9">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>4096</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+      <c r="F10">
+        <v>0.53</v>
+      </c>
+      <c r="G10">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H10">
+        <v>523.61999500000002</v>
+      </c>
+      <c r="I10">
+        <v>3.1415820000000001</v>
+      </c>
+      <c r="J10">
+        <v>-1.1E-5</v>
+      </c>
+      <c r="K10">
+        <v>3.141581</v>
+      </c>
+      <c r="L10">
+        <v>-1.2E-5</v>
+      </c>
+      <c r="M10">
+        <v>3.1414689999999998</v>
+      </c>
+      <c r="N10">
+        <v>-1.2400000000000001E-4</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>256</v>
+      </c>
+      <c r="F11">
+        <v>0.62</v>
+      </c>
+      <c r="G11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H11">
+        <v>5.39</v>
+      </c>
+      <c r="I11">
+        <v>3.1418979999999999</v>
+      </c>
+      <c r="J11">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="K11">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L11">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+      <c r="M11">
+        <v>3.1416629999999999</v>
+      </c>
+      <c r="N11">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>1024</v>
+      </c>
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>256</v>
+      </c>
+      <c r="F12">
+        <v>0.18</v>
+      </c>
+      <c r="G12">
+        <v>2.29</v>
+      </c>
+      <c r="H12">
+        <v>22.07</v>
+      </c>
+      <c r="I12">
+        <v>3.141394</v>
+      </c>
+      <c r="J12">
+        <v>-1.9900000000000001E-4</v>
+      </c>
+      <c r="K12">
+        <v>3.1414</v>
+      </c>
+      <c r="L12">
+        <v>-1.92E-4</v>
+      </c>
+      <c r="M12">
+        <v>3.1419280000000001</v>
+      </c>
+      <c r="N12">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>4096</v>
+      </c>
+      <c r="D13">
+        <v>256</v>
+      </c>
+      <c r="E13">
+        <v>256</v>
+      </c>
+      <c r="F13">
+        <v>0.54</v>
+      </c>
+      <c r="G13">
+        <v>9.18</v>
+      </c>
+      <c r="H13">
+        <v>88.220000999999996</v>
+      </c>
+      <c r="I13">
+        <v>3.1415760000000001</v>
+      </c>
+      <c r="J13">
+        <v>-1.7E-5</v>
+      </c>
+      <c r="K13">
+        <v>3.141581</v>
+      </c>
+      <c r="L13">
+        <v>-1.2E-5</v>
+      </c>
+      <c r="M13">
+        <v>3.1415320000000002</v>
+      </c>
+      <c r="N13">
+        <v>-6.0999999999999999E-5</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>256</v>
+      </c>
+      <c r="D14">
+        <v>256</v>
+      </c>
+      <c r="E14">
+        <v>256</v>
+      </c>
+      <c r="F14">
+        <v>0.11</v>
+      </c>
+      <c r="G14">
+        <v>0.59</v>
+      </c>
+      <c r="H14">
+        <v>21.219999000000001</v>
+      </c>
+      <c r="I14">
+        <v>3.1418979999999999</v>
+      </c>
+      <c r="J14">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="K14">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L14">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+      <c r="M14">
+        <v>3.1419800000000002</v>
+      </c>
+      <c r="N14">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1024</v>
+      </c>
+      <c r="D15">
+        <v>256</v>
+      </c>
+      <c r="E15">
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <v>0.18</v>
+      </c>
+      <c r="G15">
+        <v>2.35</v>
+      </c>
+      <c r="H15">
+        <v>75.540001000000004</v>
+      </c>
+      <c r="I15">
+        <v>3.141394</v>
+      </c>
+      <c r="J15">
+        <v>-1.9900000000000001E-4</v>
+      </c>
+      <c r="K15">
+        <v>3.1414</v>
+      </c>
+      <c r="L15">
+        <v>-1.92E-4</v>
+      </c>
+      <c r="M15">
+        <v>3.1416729999999999</v>
+      </c>
+      <c r="N15">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>4096</v>
+      </c>
+      <c r="D16">
+        <v>256</v>
+      </c>
+      <c r="E16">
+        <v>256</v>
+      </c>
+      <c r="F16">
+        <v>0.54</v>
+      </c>
+      <c r="G16">
+        <v>9.14</v>
+      </c>
+      <c r="H16">
+        <v>347.94000199999999</v>
+      </c>
+      <c r="I16">
+        <v>3.1415760000000001</v>
+      </c>
+      <c r="J16">
+        <v>-1.7E-5</v>
+      </c>
+      <c r="K16">
+        <v>3.141581</v>
+      </c>
+      <c r="L16">
+        <v>-1.2E-5</v>
+      </c>
+      <c r="M16">
+        <v>3.1414659999999999</v>
+      </c>
+      <c r="N16">
+        <v>-1.26E-4</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>256</v>
+      </c>
+      <c r="E17">
+        <v>256</v>
+      </c>
+      <c r="F17">
+        <v>0.09</v>
+      </c>
+      <c r="G17">
+        <v>0.6</v>
+      </c>
+      <c r="H17">
+        <v>34.380001</v>
+      </c>
+      <c r="I17">
+        <v>3.1418979999999999</v>
+      </c>
+      <c r="J17">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="K17">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L17">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+      <c r="M17">
+        <v>3.1418870000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1024</v>
+      </c>
+      <c r="D18">
+        <v>256</v>
+      </c>
+      <c r="E18">
+        <v>256</v>
+      </c>
+      <c r="F18">
+        <v>0.18</v>
+      </c>
+      <c r="G18">
+        <v>2.33</v>
+      </c>
+      <c r="H18">
+        <v>155.11000100000001</v>
+      </c>
+      <c r="I18">
+        <v>3.141394</v>
+      </c>
+      <c r="J18">
+        <v>-1.9900000000000001E-4</v>
+      </c>
+      <c r="K18">
+        <v>3.1414</v>
+      </c>
+      <c r="L18">
+        <v>-1.92E-4</v>
+      </c>
+      <c r="M18">
+        <v>3.1419600000000001</v>
+      </c>
+      <c r="N18">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>4096</v>
+      </c>
+      <c r="D19">
+        <v>256</v>
+      </c>
+      <c r="E19">
+        <v>256</v>
+      </c>
+      <c r="F19">
+        <v>0.53</v>
+      </c>
+      <c r="G19">
+        <v>9.16</v>
+      </c>
+      <c r="H19">
+        <v>601.72997999999995</v>
+      </c>
+      <c r="I19">
+        <v>3.1415760000000001</v>
+      </c>
+      <c r="J19">
+        <v>-1.7E-5</v>
+      </c>
+      <c r="K19">
+        <v>3.141581</v>
+      </c>
+      <c r="L19">
+        <v>-1.2E-5</v>
+      </c>
+      <c r="M19">
+        <v>3.1415160000000002</v>
+      </c>
+      <c r="N19">
+        <v>-7.7000000000000001E-5</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="D21">
+        <v>256</v>
+      </c>
+      <c r="E21">
+        <v>256</v>
+      </c>
+      <c r="F21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I21">
+        <v>3.1414110000000002</v>
+      </c>
+      <c r="J21">
+        <v>-1.8200000000000001E-4</v>
+      </c>
+      <c r="K21">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L21">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>1024</v>
+      </c>
+      <c r="D22">
+        <v>256</v>
+      </c>
+      <c r="E22">
+        <v>256</v>
+      </c>
+      <c r="F22">
+        <v>0.06</v>
+      </c>
+      <c r="G22">
+        <v>2.27</v>
+      </c>
+      <c r="I22">
+        <v>3.14154</v>
+      </c>
+      <c r="J22">
+        <v>-5.3000000000000001E-5</v>
+      </c>
+      <c r="K22">
+        <v>3.1414010000000001</v>
+      </c>
+      <c r="L22">
+        <v>-1.92E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>4096</v>
+      </c>
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="E23">
+        <v>256</v>
+      </c>
+      <c r="F23">
+        <v>0.08</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>3.141483</v>
+      </c>
+      <c r="J23">
+        <v>-1.1E-4</v>
+      </c>
+      <c r="K23">
+        <v>3.141581</v>
+      </c>
+      <c r="L23">
+        <v>-1.2E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>256</v>
+      </c>
+      <c r="D24">
+        <v>256</v>
+      </c>
+      <c r="E24">
+        <v>256</v>
+      </c>
+      <c r="F24">
+        <v>0.09</v>
+      </c>
+      <c r="G24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I24">
+        <v>3.141562</v>
+      </c>
+      <c r="J24">
+        <v>-3.1000000000000001E-5</v>
+      </c>
+      <c r="K24">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L24">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>1024</v>
+      </c>
+      <c r="D25">
+        <v>256</v>
+      </c>
+      <c r="E25">
+        <v>256</v>
+      </c>
+      <c r="F25">
+        <v>0.05</v>
+      </c>
+      <c r="G25">
+        <v>2.33</v>
+      </c>
+      <c r="I25">
+        <v>3.141562</v>
+      </c>
+      <c r="J25">
+        <v>-3.1000000000000001E-5</v>
+      </c>
+      <c r="K25">
+        <v>3.1414</v>
+      </c>
+      <c r="L25">
+        <v>-1.92E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>4096</v>
+      </c>
+      <c r="D26">
+        <v>256</v>
+      </c>
+      <c r="E26">
+        <v>256</v>
+      </c>
+      <c r="F26">
+        <v>0.09</v>
+      </c>
+      <c r="G26">
+        <v>9.18</v>
+      </c>
+      <c r="I26">
+        <v>3.141562</v>
+      </c>
+      <c r="J26">
+        <v>-3.1000000000000001E-5</v>
+      </c>
+      <c r="K26">
+        <v>3.141581</v>
+      </c>
+      <c r="L26">
+        <v>-1.2E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>256</v>
+      </c>
+      <c r="D28">
+        <v>256</v>
+      </c>
+      <c r="E28">
+        <v>256</v>
+      </c>
+      <c r="F28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I28">
+        <v>3.1442489999999998</v>
+      </c>
+      <c r="J28">
+        <v>2.6570000000000001E-3</v>
+      </c>
+      <c r="K28">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L28">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>1024</v>
+      </c>
+      <c r="D29">
+        <v>256</v>
+      </c>
+      <c r="E29">
+        <v>256</v>
+      </c>
+      <c r="F29">
+        <v>0.06</v>
+      </c>
+      <c r="G29">
+        <v>2.29</v>
+      </c>
+      <c r="I29">
+        <v>3.1395170000000001</v>
+      </c>
+      <c r="J29">
+        <v>-2.0760000000000002E-3</v>
+      </c>
+      <c r="K29">
+        <v>3.1414010000000001</v>
+      </c>
+      <c r="L29">
+        <v>-1.92E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>4096</v>
+      </c>
+      <c r="D30">
+        <v>256</v>
+      </c>
+      <c r="E30">
+        <v>256</v>
+      </c>
+      <c r="F30">
+        <v>0.12</v>
+      </c>
+      <c r="G30">
+        <v>9.02</v>
+      </c>
+      <c r="I30">
+        <v>3.1415069999999998</v>
+      </c>
+      <c r="J30">
+        <v>-8.5000000000000006E-5</v>
+      </c>
+      <c r="K30">
+        <v>3.141581</v>
+      </c>
+      <c r="L30">
+        <v>-1.2E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>256</v>
+      </c>
+      <c r="D31">
+        <v>256</v>
+      </c>
+      <c r="E31">
+        <v>256</v>
+      </c>
+      <c r="F31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I31">
+        <v>3.1442489999999998</v>
+      </c>
+      <c r="J31">
+        <v>2.6570000000000001E-3</v>
+      </c>
+      <c r="K31">
+        <v>3.1414409999999999</v>
+      </c>
+      <c r="L31">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>1024</v>
+      </c>
+      <c r="D32">
+        <v>256</v>
+      </c>
+      <c r="E32">
+        <v>256</v>
+      </c>
+      <c r="F32">
+        <v>0.06</v>
+      </c>
+      <c r="G32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I32">
+        <v>3.139507</v>
+      </c>
+      <c r="J32">
+        <v>-2.085E-3</v>
+      </c>
+      <c r="K32">
+        <v>3.1414</v>
+      </c>
+      <c r="L32">
+        <v>-1.92E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>4096</v>
+      </c>
+      <c r="D33">
+        <v>256</v>
+      </c>
+      <c r="E33">
+        <v>256</v>
+      </c>
+      <c r="F33">
+        <v>0.12</v>
+      </c>
+      <c r="G33">
+        <v>9.18</v>
+      </c>
+      <c r="I33">
+        <v>3.1414979999999999</v>
+      </c>
+      <c r="J33">
+        <v>-9.5000000000000005E-5</v>
+      </c>
+      <c r="K33">
+        <v>3.141581</v>
+      </c>
+      <c r="L33">
+        <v>-1.2E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>256</v>
+      </c>
+      <c r="D35">
+        <v>256</v>
+      </c>
+      <c r="E35">
+        <v>256</v>
+      </c>
+      <c r="F35">
+        <v>0.13</v>
+      </c>
+      <c r="I35">
+        <v>3.1414840000000002</v>
+      </c>
+      <c r="J35">
+        <v>-1.091082E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>1024</v>
+      </c>
+      <c r="D36">
+        <v>256</v>
+      </c>
+      <c r="E36">
+        <v>256</v>
+      </c>
+      <c r="F36">
+        <v>0.05</v>
+      </c>
+      <c r="I36">
+        <v>3.1416580000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>6.5414209999999995E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>4096</v>
+      </c>
+      <c r="D37">
+        <v>256</v>
+      </c>
+      <c r="E37">
+        <v>256</v>
+      </c>
+      <c r="F37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I37">
+        <v>3.1415790000000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-1.397918E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>256</v>
+      </c>
+      <c r="D38">
+        <v>256</v>
+      </c>
+      <c r="E38">
+        <v>256</v>
+      </c>
+      <c r="F38">
+        <v>0.16</v>
+      </c>
+      <c r="I38">
+        <v>3.1414840000000002</v>
+      </c>
+      <c r="J38">
+        <v>-1.091082E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>1024</v>
+      </c>
+      <c r="D39">
+        <v>256</v>
+      </c>
+      <c r="E39">
+        <v>256</v>
+      </c>
+      <c r="F39">
+        <v>0.05</v>
+      </c>
+      <c r="I39">
+        <v>3.1416580000000001</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6.5652620000000004E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>4096</v>
+      </c>
+      <c r="D40">
+        <v>256</v>
+      </c>
+      <c r="E40">
+        <v>256</v>
+      </c>
+      <c r="F40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I40">
+        <v>3.1415790000000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-1.374077E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView topLeftCell="AM5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AO28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
@@ -6689,27 +7502,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="16"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
       <c r="AC1" t="s">
         <v>35</v>
       </c>
@@ -6760,10 +7573,10 @@
       <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
       <c r="U2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6863,11 +7676,11 @@
       <c r="O3">
         <v>2</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="15">
         <f>POWER(2,24)</f>
         <v>16777216</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -6994,8 +7807,8 @@
       <c r="O4">
         <v>4</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
       <c r="S4" s="3" t="s">
         <v>34</v>
       </c>
@@ -7120,8 +7933,8 @@
       <c r="O5">
         <v>8</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="3" t="s">
         <v>35</v>
       </c>
@@ -7246,8 +8059,8 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="11" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -7374,8 +8187,8 @@
       <c r="O7">
         <v>4</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="3" t="s">
         <v>34</v>
       </c>
@@ -7500,8 +8313,8 @@
       <c r="O8">
         <v>8</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="3" t="s">
         <v>35</v>
       </c>
@@ -7626,11 +8439,11 @@
       <c r="O9">
         <v>2</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="15">
         <f>POWER(2,26)</f>
         <v>67108864</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -7715,8 +8528,8 @@
       <c r="O10">
         <v>4</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="3" t="s">
         <v>34</v>
       </c>
@@ -7802,8 +8615,8 @@
       <c r="O11">
         <v>8</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="3" t="s">
         <v>35</v>
       </c>
@@ -7917,8 +8730,8 @@
       <c r="O12">
         <v>2</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="11" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -8045,8 +8858,8 @@
       <c r="O13">
         <v>4</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3" t="s">
         <v>34</v>
       </c>
@@ -8171,8 +8984,8 @@
       <c r="O14">
         <v>8</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="3" t="s">
         <v>35</v>
       </c>
@@ -8297,11 +9110,11 @@
       <c r="O15">
         <v>2</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="15">
         <f>POWER(2,28)</f>
         <v>268435456</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="15" t="s">
         <v>32</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -8428,8 +9241,8 @@
       <c r="O16">
         <v>4</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
       <c r="S16" s="3" t="s">
         <v>34</v>
       </c>
@@ -8554,8 +9367,8 @@
       <c r="O17">
         <v>8</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
       <c r="S17" s="3" t="s">
         <v>35</v>
       </c>
@@ -8680,8 +9493,8 @@
       <c r="O18">
         <v>2</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="11" t="s">
+      <c r="Q18" s="16"/>
+      <c r="R18" s="15" t="s">
         <v>36</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -8766,8 +9579,8 @@
       <c r="O19">
         <v>4</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="3" t="s">
         <v>34</v>
       </c>
@@ -8850,8 +9663,8 @@
       <c r="O20">
         <v>8</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
       <c r="S20" s="3" t="s">
         <v>35</v>
       </c>
@@ -9603,10 +10416,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="F7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9616,250 +10429,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="21">
         <v>1000000</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="12">
         <v>1.03</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="12">
         <v>0.66</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="12">
         <v>0.42</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="12">
         <v>71.849999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <v>1.81</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="12">
         <v>1.53</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="12">
         <v>1.23</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="12">
         <v>1.29</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="12">
         <v>87.56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="21">
         <v>5000000</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <v>5.37</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="12">
         <v>5.35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="12">
         <v>3.04</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="12">
         <v>3.05</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="12">
         <v>89.27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <v>8.4</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="12">
         <v>6.86</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="12">
         <v>5.57</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="12">
         <v>5.84</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="12">
         <v>98.95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="21">
         <v>10000000</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <v>10.69</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="12">
         <v>10.59</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="12">
         <v>5.99</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="12">
         <v>5.78</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="12">
         <v>91.89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="12">
         <v>17.57</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="12">
         <v>13.85</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="12">
         <v>11.1</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <v>11.6</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="12">
         <v>109.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="21">
         <v>50000000</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>55.82</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="12">
         <v>35.5</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="12">
         <v>28.4</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <v>29.46</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <v>163.72999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="12">
         <v>78.91</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="12">
         <v>59.62</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="12">
         <v>54.11</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="12">
         <v>55.84</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="12">
         <v>254.62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="21">
         <v>100000000</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="12">
         <v>106.27</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="12">
         <v>73.150000000000006</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="12">
         <v>55.25</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="12">
         <v>57.79</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="12">
         <v>254.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="36" spans="2:2" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9874,4 +10692,281 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <f>600*600</f>
+        <v>360000</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12">
+        <v>211.08</v>
+      </c>
+      <c r="D3" s="12">
+        <v>364.83</v>
+      </c>
+      <c r="E3" s="12">
+        <v>196.94</v>
+      </c>
+      <c r="F3" s="12">
+        <v>105.76</v>
+      </c>
+      <c r="G3" s="12">
+        <v>209.88</v>
+      </c>
+      <c r="H3" s="12">
+        <v>229.13</v>
+      </c>
+      <c r="I3" s="12">
+        <v>110.38</v>
+      </c>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="12">
+        <v>211.1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>364.74</v>
+      </c>
+      <c r="E4" s="12">
+        <v>198.56</v>
+      </c>
+      <c r="F4" s="12">
+        <v>107.41</v>
+      </c>
+      <c r="G4" s="12">
+        <v>208.98</v>
+      </c>
+      <c r="H4" s="12">
+        <v>235.16</v>
+      </c>
+      <c r="I4" s="12">
+        <v>118.16</v>
+      </c>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <f>1200*1200</f>
+        <v>1440000</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1694.16</v>
+      </c>
+      <c r="D5" s="12">
+        <v>13051.12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6737.87</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3354.64</v>
+      </c>
+      <c r="G5" s="12">
+        <v>3264.03</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1560.97</v>
+      </c>
+      <c r="I5" s="12">
+        <v>353.96</v>
+      </c>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1974.55</v>
+      </c>
+      <c r="D6" s="12">
+        <v>13657.9</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7333.47</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4159.04</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3353.89</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1702.35</v>
+      </c>
+      <c r="I6" s="12">
+        <v>367.13</v>
+      </c>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <f>1800*1800</f>
+        <v>3240000</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5483.51</v>
+      </c>
+      <c r="D7" s="12">
+        <v>43998.25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>22912.02</v>
+      </c>
+      <c r="F7" s="12">
+        <v>11449.55</v>
+      </c>
+      <c r="G7" s="12">
+        <v>11141.76</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5822.1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1018.98</v>
+      </c>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6552.82</v>
+      </c>
+      <c r="D8" s="12">
+        <v>46981.69</v>
+      </c>
+      <c r="E8" s="12">
+        <v>25446.73</v>
+      </c>
+      <c r="F8" s="12">
+        <v>15231.62</v>
+      </c>
+      <c r="G8" s="12">
+        <v>11830.85</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5886.69</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1042.77</v>
+      </c>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -797,6 +797,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,12 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -977,7 +977,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1724,11 +1723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146561664"/>
-        <c:axId val="146576128"/>
+        <c:axId val="133662208"/>
+        <c:axId val="133664128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146561664"/>
+        <c:axId val="133662208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,14 +1749,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146576128"/>
+        <c:crossAx val="133664128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1765,7 +1763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146576128"/>
+        <c:axId val="133664128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,21 +1786,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146561664"/>
+        <c:crossAx val="133662208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1847,7 +1843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2594,11 +2589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146496128"/>
-        <c:axId val="146506496"/>
+        <c:axId val="133789184"/>
+        <c:axId val="133791104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146496128"/>
+        <c:axId val="133789184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,14 +2620,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146506496"/>
+        <c:crossAx val="133791104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2640,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146506496"/>
+        <c:axId val="133791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,21 +2662,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146496128"/>
+        <c:crossAx val="133789184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2735,7 +2727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3299,11 +3290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146936576"/>
-        <c:axId val="146938496"/>
+        <c:axId val="133721472"/>
+        <c:axId val="133723648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146936576"/>
+        <c:axId val="133721472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,13 +3319,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146938496"/>
+        <c:crossAx val="133723648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3342,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146938496"/>
+        <c:axId val="133723648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3365,21 +3355,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146936576"/>
+        <c:crossAx val="133721472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4022,11 +4010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138237056"/>
-        <c:axId val="138238592"/>
+        <c:axId val="133868544"/>
+        <c:axId val="133883008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138237056"/>
+        <c:axId val="133868544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138238592"/>
+        <c:crossAx val="133883008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4062,7 +4050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138238592"/>
+        <c:axId val="133883008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +4080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138237056"/>
+        <c:crossAx val="133868544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7502,27 +7490,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="18" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="20"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
       <c r="AC1" t="s">
         <v>35</v>
       </c>
@@ -7573,10 +7561,10 @@
       <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7676,11 +7664,11 @@
       <c r="O3">
         <v>2</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="17">
         <f>POWER(2,24)</f>
         <v>16777216</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -7807,8 +7795,8 @@
       <c r="O4">
         <v>4</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="3" t="s">
         <v>34</v>
       </c>
@@ -7933,8 +7921,8 @@
       <c r="O5">
         <v>8</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="3" t="s">
         <v>35</v>
       </c>
@@ -8059,8 +8047,8 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="15" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -8187,8 +8175,8 @@
       <c r="O7">
         <v>4</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8313,8 +8301,8 @@
       <c r="O8">
         <v>8</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
       <c r="S8" s="3" t="s">
         <v>35</v>
       </c>
@@ -8439,11 +8427,11 @@
       <c r="O9">
         <v>2</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="17">
         <f>POWER(2,26)</f>
         <v>67108864</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -8528,8 +8516,8 @@
       <c r="O10">
         <v>4</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="3" t="s">
         <v>34</v>
       </c>
@@ -8615,8 +8603,8 @@
       <c r="O11">
         <v>8</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3" t="s">
         <v>35</v>
       </c>
@@ -8730,8 +8718,8 @@
       <c r="O12">
         <v>2</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="15" t="s">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -8858,8 +8846,8 @@
       <c r="O13">
         <v>4</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
       <c r="S13" s="3" t="s">
         <v>34</v>
       </c>
@@ -8984,8 +8972,8 @@
       <c r="O14">
         <v>8</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
       <c r="S14" s="3" t="s">
         <v>35</v>
       </c>
@@ -9110,11 +9098,11 @@
       <c r="O15">
         <v>2</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="17">
         <f>POWER(2,28)</f>
         <v>268435456</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="R15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -9241,8 +9229,8 @@
       <c r="O16">
         <v>4</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
       <c r="S16" s="3" t="s">
         <v>34</v>
       </c>
@@ -9367,8 +9355,8 @@
       <c r="O17">
         <v>8</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
       <c r="S17" s="3" t="s">
         <v>35</v>
       </c>
@@ -9493,8 +9481,8 @@
       <c r="O18">
         <v>2</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="15" t="s">
+      <c r="Q18" s="18"/>
+      <c r="R18" s="17" t="s">
         <v>36</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -9579,8 +9567,8 @@
       <c r="O19">
         <v>4</v>
       </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
       <c r="S19" s="3" t="s">
         <v>34</v>
       </c>
@@ -9663,8 +9651,8 @@
       <c r="O20">
         <v>8</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
       <c r="S20" s="3" t="s">
         <v>35</v>
       </c>
@@ -10434,11 +10422,11 @@
       <c r="C1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10465,7 +10453,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="23">
         <v>1000000</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -10488,7 +10476,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
@@ -10509,7 +10497,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="23">
         <v>5000000</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -10532,7 +10520,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
@@ -10553,7 +10541,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="23">
         <v>10000000</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -10576,7 +10564,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
@@ -10597,7 +10585,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="23">
         <v>50000000</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -10620,7 +10608,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="12" t="s">
         <v>36</v>
       </c>
@@ -10641,7 +10629,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="23">
         <v>100000000</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -10664,7 +10652,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
@@ -10675,7 +10663,7 @@
       <c r="G12" s="12"/>
     </row>
     <row r="36" spans="2:2" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10696,10 +10684,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10714,16 +10702,16 @@
         <v>41</v>
       </c>
       <c r="D1" s="11"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -10753,10 +10741,10 @@
       <c r="I2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="23">
         <f>600*600</f>
         <v>360000</v>
       </c>
@@ -10784,10 +10772,10 @@
       <c r="I3" s="12">
         <v>110.38</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
@@ -10812,10 +10800,10 @@
       <c r="I4" s="12">
         <v>118.16</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="23">
         <f>1200*1200</f>
         <v>1440000</v>
       </c>
@@ -10843,10 +10831,10 @@
       <c r="I5" s="12">
         <v>353.96</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
@@ -10871,10 +10859,10 @@
       <c r="I6" s="12">
         <v>367.13</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="23">
         <f>1800*1800</f>
         <v>3240000</v>
       </c>
@@ -10902,10 +10890,10 @@
       <c r="I7" s="12">
         <v>1018.98</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
@@ -10930,31 +10918,31 @@
       <c r="I8" s="12">
         <v>1042.77</v>
       </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I9" t="s">
         <v>49</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="4530" windowWidth="1680" windowHeight="990" activeTab="4"/>
+    <workbookView xWindow="315" yWindow="4530" windowWidth="1680" windowHeight="990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Q1-preproc1" sheetId="2" r:id="rId1"/>
@@ -977,6 +977,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1744,11 +1745,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Test case based on precision and no. of elements in the vector </a:t>
+                  <a:t>Test case based on precision and no. of tries</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1786,6 +1788,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1799,6 +1802,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1843,6 +1847,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2614,12 +2619,13 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> case based on precision and no. of elements in the vector </a:t>
+                  <a:t> case based on precision and no. of tries</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2662,6 +2668,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2675,6 +2682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3290,11 +3298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133721472"/>
-        <c:axId val="133723648"/>
+        <c:axId val="133852544"/>
+        <c:axId val="133854720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133721472"/>
+        <c:axId val="133852544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133723648"/>
+        <c:crossAx val="133854720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +3340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133723648"/>
+        <c:axId val="133854720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,7 +3369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133721472"/>
+        <c:crossAx val="133852544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4010,11 +4018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133868544"/>
-        <c:axId val="133883008"/>
+        <c:axId val="132840448"/>
+        <c:axId val="133731456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133868544"/>
+        <c:axId val="132840448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,7 +4050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133883008"/>
+        <c:crossAx val="133731456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4050,7 +4058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133883008"/>
+        <c:axId val="133731456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4080,7 +4088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133868544"/>
+        <c:crossAx val="132840448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4139,13 +4147,13 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7460,8 +7468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView topLeftCell="AO28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+    <sheetView tabSelected="1" topLeftCell="AO28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="BG29" sqref="BG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10686,7 +10694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
